--- a/Testing_Data/10mmFesto_Mar2021/RawData_Mar2021.xlsx
+++ b/Testing_Data/10mmFesto_Mar2021/RawData_Mar2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben Bolen\Documents\GitHub\Bipedal_Robot\Knee Torque Test Jig\Testing Data\10mmFesto_Mar2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\10mmFesto_Mar2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47329950-780B-4450-84E7-345FE570EC21}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1892E74-94F2-421C-9C93-2648658AE544}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" firstSheet="4" activeTab="6" xr2:uid="{C5028A70-FE19-46E9-AE6B-5AA55AFE7839}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{C5028A70-FE19-46E9-AE6B-5AA55AFE7839}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -21,19 +21,10 @@
     <sheet name="Torque Components" sheetId="10" r:id="rId6"/>
     <sheet name="MuscleLengths (hand measured)" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -172,14 +163,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -194,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="47">
   <si>
     <t>Zero Factor(Horizontal Configuration)</t>
   </si>
@@ -330,6 +321,12 @@
   <si>
     <t>Max contracted length</t>
   </si>
+  <si>
+    <t>Contraction</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
@@ -441,13 +438,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,14 +767,14 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +788,7 @@
         <v>-15400</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -818,19 +815,19 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="3.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.33203125" customWidth="1"/>
-    <col min="11" max="11" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -841,7 +838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -863,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -878,7 +875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -893,7 +890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -908,7 +905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
@@ -916,7 +913,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -941,7 +938,7 @@
         <v>29.3672</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -959,7 +956,7 @@
         <v>29.3583</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -977,7 +974,7 @@
         <v>29.3583</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -995,10 +992,10 @@
         <v>0.1583</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1023,7 +1020,7 @@
         <v>5.5839999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -1041,7 +1038,7 @@
         <v>5.7827000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>6</v>
       </c>
@@ -1059,7 +1056,7 @@
         <v>5.7827000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -1077,10 +1074,10 @@
         <v>0.2215</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1105,7 +1102,7 @@
         <v>5.3659999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -1123,7 +1120,7 @@
         <v>5.3379000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1138,7 @@
         <v>5.3379000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -1159,7 +1156,7 @@
         <v>0.1085</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1181,7 +1178,7 @@
         <v>3.5512000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>5</v>
       </c>
@@ -1196,7 +1193,7 @@
         <v>3.5586000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +1208,7 @@
         <v>3.5586000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>7</v>
       </c>
@@ -1226,7 +1223,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1248,7 +1245,7 @@
         <v>5.5766</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -1263,7 +1260,7 @@
         <v>5.7827000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1275,7 @@
         <v>5.7827000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +1290,7 @@
         <v>0.22220000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -1315,7 +1312,7 @@
         <v>5.2568999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1327,7 @@
         <v>5.3379000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>6</v>
       </c>
@@ -1345,7 +1342,7 @@
         <v>5.3379000000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +1357,7 @@
         <v>0.17180000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
@@ -1382,7 +1379,7 @@
         <v>2.6688999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>5</v>
       </c>
@@ -1397,7 +1394,7 @@
         <v>2.6688999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>6</v>
       </c>
@@ -1412,7 +1409,7 @@
         <v>2.6688999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>7</v>
       </c>
@@ -1427,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -1449,7 +1446,7 @@
         <v>2.2241</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>5</v>
       </c>
@@ -1464,7 +1461,7 @@
         <v>2.2241</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>6</v>
       </c>
@@ -1479,7 +1476,7 @@
         <v>2.2241</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1516,7 +1513,7 @@
         <v>2.2214</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>5</v>
       </c>
@@ -1531,7 +1528,7 @@
         <v>2.2241</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>6</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>2.2241</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1558,7 @@
         <v>3.44E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11</v>
       </c>
@@ -1586,7 +1583,7 @@
         <v>1.3345</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>5</v>
       </c>
@@ -1604,7 +1601,7 @@
         <v>1.3345</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>6</v>
       </c>
@@ -1622,7 +1619,7 @@
         <v>1.3345</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>7</v>
       </c>
@@ -1640,7 +1637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -1662,7 +1659,7 @@
         <v>1.3345</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>5</v>
       </c>
@@ -1677,7 +1674,7 @@
         <v>1.3345</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>6</v>
       </c>
@@ -1692,7 +1689,7 @@
         <v>1.3345</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>7</v>
       </c>
@@ -1707,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>13</v>
       </c>
@@ -1726,7 +1723,7 @@
         <v>Mean</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>5</v>
       </c>
@@ -1738,7 +1735,7 @@
         <v>Median</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>6</v>
       </c>
@@ -1750,7 +1747,7 @@
         <v>Mode</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>7</v>
       </c>
@@ -1762,7 +1759,7 @@
         <v>Standard Dev</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>14</v>
       </c>
@@ -1781,7 +1778,7 @@
         <v>Mean</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>5</v>
       </c>
@@ -1793,7 +1790,7 @@
         <v>Median</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>6</v>
       </c>
@@ -1805,7 +1802,7 @@
         <v>Mode</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>7</v>
       </c>
@@ -1817,7 +1814,7 @@
         <v>Standard Dev</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>15</v>
       </c>
@@ -1836,7 +1833,7 @@
         <v>Mean</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -1848,7 +1845,7 @@
         <v>Median</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>6</v>
       </c>
@@ -1860,7 +1857,7 @@
         <v>Mode</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>7</v>
       </c>
@@ -1872,7 +1869,7 @@
         <v>Standard Dev</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -1891,7 +1888,7 @@
         <v>Mean</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>5</v>
       </c>
@@ -1903,7 +1900,7 @@
         <v>Median</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>6</v>
       </c>
@@ -1915,7 +1912,7 @@
         <v>Mode</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>7</v>
       </c>
@@ -1927,7 +1924,7 @@
         <v>Standard Dev</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>17</v>
       </c>
@@ -1946,7 +1943,7 @@
         <v>Mean</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>5</v>
       </c>
@@ -1958,7 +1955,7 @@
         <v>Median</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>6</v>
       </c>
@@ -1970,7 +1967,7 @@
         <v>Mode</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>7</v>
       </c>
@@ -1982,7 +1979,7 @@
         <v>Standard Dev</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>18</v>
       </c>
@@ -2001,7 +1998,7 @@
         <v>Mean</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>5</v>
       </c>
@@ -2013,7 +2010,7 @@
         <v>Median</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>6</v>
       </c>
@@ -2025,7 +2022,7 @@
         <v>Mode</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>7</v>
       </c>
@@ -2037,7 +2034,7 @@
         <v>Standard Dev</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>19</v>
       </c>
@@ -2056,7 +2053,7 @@
         <v>Mean</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>5</v>
       </c>
@@ -2068,7 +2065,7 @@
         <v>Median</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>6</v>
       </c>
@@ -2080,7 +2077,7 @@
         <v>Mode</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>7</v>
       </c>
@@ -2092,7 +2089,7 @@
         <v>Standard Dev</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>20</v>
       </c>
@@ -2111,7 +2108,7 @@
         <v>Mean</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>5</v>
       </c>
@@ -2123,7 +2120,7 @@
         <v>Median</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>6</v>
       </c>
@@ -2135,7 +2132,7 @@
         <v>Mode</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>7</v>
       </c>
@@ -2161,13 +2158,13 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.5546875" customWidth="1"/>
-    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'Load(N) Stats'!A1</f>
         <v>Flexion</v>
@@ -2177,7 +2174,7 @@
         <v>Extension</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2194,7 +2191,7 @@
         <v>n/a</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2211,7 +2208,7 @@
         <v>29.3672</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2228,7 +2225,7 @@
         <v>5.5839999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2245,7 +2242,7 @@
         <v>5.3659999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2262,7 +2259,7 @@
         <v>3.5512000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2279,7 +2276,7 @@
         <v>5.5766</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2296,7 +2293,7 @@
         <v>5.2568999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2313,7 +2310,7 @@
         <v>2.6688999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2330,7 +2327,7 @@
         <v>2.2241</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2347,7 +2344,7 @@
         <v>2.2214</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2364,7 +2361,7 @@
         <v>1.7810999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2381,7 +2378,7 @@
         <v>1.3345</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2398,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2415,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2432,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2449,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2466,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2483,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2500,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2530,15 +2527,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="2.21875" customWidth="1"/>
-    <col min="6" max="6" width="36.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -2546,7 +2543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2567,7 +2564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
@@ -2581,7 +2578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2598,11 +2595,11 @@
       <c r="F5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -2612,9 +2609,9 @@
       <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G6" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2635,7 +2632,7 @@
         <v>42.534999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -2649,7 +2646,7 @@
         <v>81.626999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2670,7 +2667,7 @@
         <v>42.85</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
@@ -2684,7 +2681,7 @@
         <v>80.867999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -2705,7 +2702,7 @@
         <v>48.731000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
@@ -2719,7 +2716,7 @@
         <v>78.405000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -2740,7 +2737,7 @@
         <v>59.158000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
@@ -2754,7 +2751,7 @@
         <v>79.307000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -2775,7 +2772,7 @@
         <v>59.247999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2789,7 +2786,7 @@
         <v>78.706000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -2810,7 +2807,7 @@
         <v>63.728000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
@@ -2824,7 +2821,7 @@
         <v>83.435000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -2845,7 +2842,7 @@
         <v>66.52</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
@@ -2859,7 +2856,7 @@
         <v>82.507000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -2880,7 +2877,7 @@
         <v>76.915000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>24</v>
       </c>
@@ -2894,7 +2891,7 @@
         <v>80.596999999999994</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -2915,7 +2912,7 @@
         <v>78.213999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>24</v>
       </c>
@@ -2929,7 +2926,7 @@
         <v>84.298000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
@@ -2950,7 +2947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
@@ -2964,7 +2961,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -2975,7 +2972,7 @@
         <v>161.75700000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>24</v>
       </c>
@@ -2983,7 +2980,7 @@
         <v>77.218999999999994</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2994,7 +2991,7 @@
         <v>149.74100000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>24</v>
       </c>
@@ -3002,7 +2999,7 @@
         <v>79.066999999999993</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15</v>
       </c>
@@ -3013,7 +3010,7 @@
         <v>145.29499999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>24</v>
       </c>
@@ -3021,7 +3018,7 @@
         <v>78.77</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
@@ -3032,7 +3029,7 @@
         <v>144.99600000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>24</v>
       </c>
@@ -3056,18 +3053,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="4.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="8" max="8" width="36.77734375" customWidth="1"/>
+    <col min="8" max="8" width="36.7109375" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="3.6640625" style="13" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="3.7109375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3075,7 +3072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3096,7 +3093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" t="s">
         <v>23</v>
@@ -3106,7 +3103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3130,11 +3127,11 @@
       <c r="H5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>29</v>
       </c>
@@ -3147,9 +3144,9 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
@@ -3162,9 +3159,9 @@
       <c r="H7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -3179,10 +3176,10 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -3215,7 +3212,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
         <v>29</v>
@@ -3240,7 +3237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -3260,7 +3257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
@@ -3280,10 +3277,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -3316,7 +3313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
         <v>29</v>
@@ -3341,7 +3338,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
@@ -3361,7 +3358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
@@ -3381,10 +3378,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -3417,7 +3414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="12" t="s">
         <v>29</v>
@@ -3442,7 +3439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
@@ -3462,7 +3459,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>27</v>
       </c>
@@ -3482,10 +3479,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>6</v>
       </c>
@@ -3518,7 +3515,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="12" t="s">
         <v>29</v>
@@ -3543,7 +3540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
@@ -3563,7 +3560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>27</v>
       </c>
@@ -3583,10 +3580,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>7</v>
       </c>
@@ -3619,7 +3616,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="12" t="s">
         <v>29</v>
@@ -3644,7 +3641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>26</v>
       </c>
@@ -3664,7 +3661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>27</v>
       </c>
@@ -3684,10 +3681,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>8</v>
       </c>
@@ -3723,7 +3720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="12" t="s">
         <v>29</v>
@@ -3748,7 +3745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>26</v>
       </c>
@@ -3768,7 +3765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>27</v>
       </c>
@@ -3788,10 +3785,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>9</v>
       </c>
@@ -3827,7 +3824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="12" t="s">
         <v>29</v>
@@ -3852,7 +3849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
         <v>26</v>
       </c>
@@ -3872,7 +3869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>27</v>
       </c>
@@ -3892,10 +3889,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>10</v>
       </c>
@@ -3928,7 +3925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="12" t="s">
         <v>29</v>
@@ -3950,7 +3947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>26</v>
       </c>
@@ -3970,7 +3967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>27</v>
       </c>
@@ -3990,10 +3987,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>11</v>
       </c>
@@ -4029,7 +4026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>29</v>
       </c>
@@ -4049,7 +4046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>26</v>
       </c>
@@ -4069,7 +4066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
         <v>27</v>
       </c>
@@ -4089,10 +4086,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>12</v>
       </c>
@@ -4118,7 +4115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="12" t="s">
         <v>29</v>
@@ -4135,7 +4132,7 @@
       <c r="H56" s="12"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>26</v>
       </c>
@@ -4152,7 +4149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
         <v>27</v>
       </c>
@@ -4166,10 +4163,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>13</v>
       </c>
@@ -4184,7 +4181,7 @@
         <v>18.242999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="12" t="s">
         <v>29</v>
@@ -4194,7 +4191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>26</v>
       </c>
@@ -4202,7 +4199,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="4" t="s">
         <v>27</v>
       </c>
@@ -4210,10 +4207,10 @@
         <v>229.72</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>14</v>
       </c>
@@ -4228,7 +4225,7 @@
         <v>30.258999999999986</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="12" t="s">
         <v>29</v>
@@ -4238,7 +4235,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
         <v>26</v>
       </c>
@@ -4246,7 +4243,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="4" t="s">
         <v>27</v>
       </c>
@@ -4254,10 +4251,10 @@
         <v>228.62</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>15</v>
       </c>
@@ -4272,7 +4269,7 @@
         <v>34.705000000000013</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="12" t="s">
         <v>29</v>
@@ -4285,7 +4282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
         <v>26</v>
       </c>
@@ -4296,7 +4293,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
         <v>27</v>
       </c>
@@ -4307,10 +4304,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>16</v>
       </c>
@@ -4325,7 +4322,7 @@
         <v>35.003999999999991</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="12" t="s">
         <v>29</v>
@@ -4335,7 +4332,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
         <v>26</v>
       </c>
@@ -4346,7 +4343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
         <v>27</v>
       </c>
@@ -4373,19 +4370,19 @@
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -4408,7 +4405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -4437,7 +4434,7 @@
         <v>-12.330817477593875</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -4465,7 +4462,7 @@
         <v>-11.82043624443437</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -4493,7 +4490,7 @@
         <v>-11.429486114451803</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4521,7 +4518,7 @@
         <v>-10.386543399933489</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4549,7 +4546,7 @@
         <v>-9.991501739247763</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4577,7 +4574,7 @@
         <v>-9.1902584273042454</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4605,7 +4602,7 @@
         <v>-8.7654568564826167</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4633,7 +4630,7 @@
         <v>-7.0754870109514298</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4661,7 +4658,7 @@
         <v>-8.3285580954428813</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -4689,7 +4686,7 @@
         <v>-10.300211003646696</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -4717,7 +4714,7 @@
         <v>-9.7765927830196127</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -4745,7 +4742,7 @@
         <v>-10.792724319911011</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -4773,7 +4770,7 @@
         <v>-5.3064280656430611</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -4801,7 +4798,7 @@
         <v>-4.3070230205340678</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -4829,7 +4826,7 @@
         <v>-4.7102880194022543</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -4852,7 +4849,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4881,7 +4878,7 @@
         <v>1.2688058323570559</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -4909,7 +4906,7 @@
         <v>1.2176795805993579</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -4937,7 +4934,7 @@
         <v>0.80458467965062597</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -4965,7 +4962,7 @@
         <v>1.2537422404376815</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -4993,7 +4990,7 @@
         <v>1.1799747819827207</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -5021,7 +5018,7 @@
         <v>0.60438236021037006</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -5049,7 +5046,7 @@
         <v>0.50262211522984312</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -5077,7 +5074,7 @@
         <v>0.49828834692936363</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11</v>
       </c>
@@ -5112,182 +5109,211 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015E007F-60E8-4779-AD66-7B1F859103FD}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A2:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B3" s="8">
         <v>0.9375</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C3" s="8">
         <v>23.8125</v>
-      </c>
-      <c r="D2" s="9">
-        <f>C2</f>
-        <v>23.8125</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="8">
-        <v>15.1875</v>
-      </c>
-      <c r="C3" s="8">
-        <v>385.76249999999999</v>
       </c>
       <c r="D3" s="9">
         <f>C3</f>
-        <v>385.76249999999999</v>
-      </c>
-      <c r="F3">
-        <f>C3*0.75</f>
-        <v>289.32187499999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23.8125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8">
+        <v>15.1875</v>
+      </c>
+      <c r="C4" s="8">
+        <v>385</v>
+      </c>
+      <c r="D4" s="9">
+        <f>C4</f>
+        <v>385</v>
+      </c>
+      <c r="F4">
+        <f>C4*0.75</f>
+        <v>288.75</v>
+      </c>
+      <c r="G4">
+        <v>330</v>
+      </c>
+      <c r="H4">
+        <f>100*(1-G4/D4)</f>
+        <v>14.28571428571429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B5" s="8">
         <v>2.5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C5" s="8">
         <v>63.5</v>
       </c>
-      <c r="D4" s="17">
-        <f>SUM(C4:C6)</f>
+      <c r="D5" s="18">
+        <f>SUM(C5:C7)</f>
         <v>168.27500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B6" s="8">
         <v>0.9375</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C6" s="8">
         <v>23.8125</v>
       </c>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B7" s="8">
         <v>3.1875</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C7" s="8">
         <v>80.962500000000006</v>
       </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="D7" s="18"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="F8" s="18" t="s">
+      <c r="D9" s="5"/>
+      <c r="F9" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="H9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>25.4</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>14.25</v>
       </c>
-      <c r="C10" s="2">
-        <v>361.95</v>
-      </c>
-      <c r="F10">
-        <f>C10*0.75</f>
-        <v>271.46249999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="2">
+        <v>375</v>
+      </c>
+      <c r="F11">
+        <f>C11*0.75</f>
+        <v>281.25</v>
+      </c>
+      <c r="G11">
+        <v>316</v>
+      </c>
+      <c r="H11">
+        <f>100*(1-G11/C11)</f>
+        <v>15.733333333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="2">
         <v>5.625</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="2">
         <v>142.875</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D5:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>